--- a/ISTEM_PartsOrderList_UselessBox.xlsx
+++ b/ISTEM_PartsOrderList_UselessBox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leistimo\Documents\GitHub\ISTEM2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AB3DC32-0400-4E19-8A4D-D9DBC34D4C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B290DD9D-C0BE-497A-9AFA-F4F4FC249803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{420A9ACE-F2EA-468B-9015-4042B098DEB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{420A9ACE-F2EA-468B-9015-4042B098DEB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>Part Description</t>
   </si>
@@ -129,9 +129,6 @@
     <t>ESP32</t>
   </si>
   <si>
-    <t>ESP32 with Breakout Board</t>
-  </si>
-  <si>
     <t>MPU-6050 3 Axis motion module</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>48 Sensor Starter Kit</t>
   </si>
   <si>
-    <t>DC Motor Kit</t>
-  </si>
-  <si>
     <t xml:space="preserve">Breadboard </t>
   </si>
   <si>
@@ -196,6 +190,27 @@
   </si>
   <si>
     <t>Needle nose plirers</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/3256807233498202.html?spm=a2g0o.productlist.main.7.4ae3RIv0RIv0WL&amp;algo_pvid=02ef2f28-742d-4f17-bab9-180561fff846&amp;algo_exp_id=02ef2f28-742d-4f17-bab9-180561fff846-6&amp;pdp_ext_f=%7B%22order%22%3A%221245%22%2C%22eval%22%3A%221%22%7D&amp;pdp_npi=4%40dis%21USD%2123.10%213.43%21%21%21166.45%2124.71%21%402101ef5e17413010645464431e5357%2112000040678175477%21sea%21US%210%21ABX&amp;curPageLogUid=BfQxaL356lyZ&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
+  </si>
+  <si>
+    <t>for 12 participants</t>
+  </si>
+  <si>
+    <t>Breakout Board only</t>
+  </si>
+  <si>
+    <t>ESP32 with Breakout Board (not available)</t>
+  </si>
+  <si>
+    <t>ESC Brushed Motor</t>
+  </si>
+  <si>
+    <t>DC Motor Kit (not available)</t>
+  </si>
+  <si>
+    <t>DC Motors</t>
   </si>
 </sst>
 </file>
@@ -249,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -265,6 +280,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -580,22 +596,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EFB30F-B18E-4DA5-BFFD-A8F74341CC63}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,13 +628,19 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -628,14 +651,21 @@
         <v>0.1</v>
       </c>
       <c r="D3" s="1">
-        <f>B3*C3</f>
+        <f t="shared" ref="D3:D16" si="0">B3*C3</f>
         <v>3.8990000000000005</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <f>F3*B3</f>
+        <v>38.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -646,14 +676,21 @@
         <v>0.1</v>
       </c>
       <c r="D4" s="1">
-        <f>B4*C4</f>
+        <f t="shared" si="0"/>
         <v>0.79900000000000004</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" ref="G4:G45" si="1">F4*B4</f>
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -664,14 +701,21 @@
         <v>0.2</v>
       </c>
       <c r="D5" s="1">
-        <f>B5*C5</f>
+        <f t="shared" si="0"/>
         <v>3.5979999999999999</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="1"/>
+        <v>89.949999999999989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -682,16 +726,23 @@
         <v>0.2</v>
       </c>
       <c r="D6" s="1">
-        <f>B6*C6</f>
+        <f t="shared" si="0"/>
         <v>1.5980000000000001</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="1"/>
+        <v>23.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1">
         <v>7.99</v>
@@ -700,14 +751,21 @@
         <v>0.2</v>
       </c>
       <c r="D7" s="1">
-        <f>B7*C7</f>
+        <f t="shared" si="0"/>
         <v>1.5980000000000001</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="1"/>
+        <v>23.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -718,14 +776,21 @@
         <v>0.1</v>
       </c>
       <c r="D8" s="1">
-        <f>B8*C8</f>
+        <f t="shared" si="0"/>
         <v>0.89900000000000002</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="1"/>
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -736,14 +801,21 @@
         <v>0.1</v>
       </c>
       <c r="D9" s="1">
-        <f>B9*C9</f>
+        <f t="shared" si="0"/>
         <v>0.57300000000000006</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="1"/>
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -754,14 +826,21 @@
         <v>0.1</v>
       </c>
       <c r="D10" s="1">
-        <f>B10*C10</f>
+        <f t="shared" si="0"/>
         <v>1.3890000000000002</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="1"/>
+        <v>13.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -772,14 +851,21 @@
         <v>0.1</v>
       </c>
       <c r="D11" s="1">
-        <f>B11*C11</f>
+        <f t="shared" si="0"/>
         <v>1.4990000000000001</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="1"/>
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -790,14 +876,21 @@
         <v>0.1</v>
       </c>
       <c r="D12" s="1">
-        <f>B12*C12</f>
+        <f t="shared" si="0"/>
         <v>0.68900000000000006</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="1"/>
+        <v>13.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -808,14 +901,21 @@
         <v>0.1</v>
       </c>
       <c r="D13" s="1">
-        <f>B13*C13</f>
+        <f t="shared" si="0"/>
         <v>0.89900000000000002</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="1"/>
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -826,14 +926,21 @@
         <v>0.2</v>
       </c>
       <c r="D14" s="1">
-        <f>B14*C14</f>
+        <f t="shared" si="0"/>
         <v>3.798</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="1"/>
+        <v>37.979999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -844,14 +951,21 @@
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <f>B15*C15</f>
+        <f t="shared" si="0"/>
         <v>6.99</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="1"/>
+        <v>97.86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -862,14 +976,21 @@
         <v>0.5</v>
       </c>
       <c r="D16" s="1">
-        <f>B16*C16</f>
+        <f t="shared" si="0"/>
         <v>3.4950000000000001</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="1"/>
+        <v>48.93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -880,14 +1001,21 @@
         <v>0.1</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" ref="D17:D22" si="0">B17*C17</f>
+        <f t="shared" ref="D17:D22" si="2">B17*C17</f>
         <v>1.2990000000000002</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="1"/>
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -898,11 +1026,15 @@
         <v>1</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -913,14 +1045,21 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14.99</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>14</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="1"/>
+        <v>209.86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -931,16 +1070,23 @@
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11.99</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>14</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="1"/>
+        <v>167.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1">
         <v>18.989999999999998</v>
@@ -949,16 +1095,23 @@
         <v>0.2</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.798</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="1"/>
+        <v>56.97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1">
         <v>13</v>
@@ -967,12 +1120,16 @@
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -983,23 +1140,35 @@
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" ref="D23:D38" si="1">B23*C23</f>
+        <f t="shared" ref="D23:D42" si="3">B23*C23</f>
         <v>19</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1010,364 +1179,576 @@
         <v>0.2</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.798</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="1"/>
+        <v>144.94999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B27" s="1">
         <v>21.99</v>
       </c>
       <c r="C27" s="5">
-        <v>0.33329999999999999</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="1"/>
-        <v>7.3292669999999989</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1">
+        <v>12.99</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="3"/>
+        <v>4.3256700000000006</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="1"/>
+        <v>38.97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1">
         <v>20.99</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="1"/>
-        <v>10.494999999999999</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="1">
-        <v>50</v>
       </c>
       <c r="C29" s="5">
         <v>0.5</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>10.494999999999999</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="1"/>
+        <v>104.94999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1">
         <v>50</v>
       </c>
       <c r="C30" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" ref="D30" si="2">B30*C30</f>
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1">
         <v>50</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="1">
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31" si="4">B31*C31</f>
+        <v>50</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="1"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
         <v>10.99</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C32" s="5">
         <v>0.66600000000000004</v>
       </c>
-      <c r="D31" s="1">
-        <f t="shared" si="1"/>
+      <c r="D32" s="1">
+        <f t="shared" si="3"/>
         <v>7.3193400000000004</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="1">
+      <c r="E32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="1"/>
+        <v>54.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1">
         <v>14.99</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C33" s="5">
         <v>0.4</v>
       </c>
-      <c r="D32" s="1">
-        <f t="shared" si="1"/>
+      <c r="D33" s="1">
+        <f t="shared" si="3"/>
         <v>5.9960000000000004</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="1">
+      <c r="E33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="1"/>
+        <v>44.97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1">
         <v>14.59</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C34" s="5">
         <v>0.5</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" si="1"/>
+      <c r="D34" s="1">
+        <f t="shared" si="3"/>
         <v>7.2949999999999999</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="E34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="1"/>
+        <v>87.539999999999992</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="1">
+        <v>9.98</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3233400000000004</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="1"/>
+        <v>29.94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="1">
+        <v>25.99</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5990000000000002</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="1"/>
+        <v>51.98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="1">
+        <v>7.99</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="1">
+        <v>7.49</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D38" s="1">
+        <f>B38*C38</f>
+        <v>1.4980000000000002</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="1"/>
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="1">
+        <v>33.68</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="3"/>
+        <v>33.68</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39">
+        <v>14</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="1"/>
+        <v>471.52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>17</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="3"/>
+        <v>8.5</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="1">
-        <v>7.99</v>
-      </c>
-      <c r="C34" s="5">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="1"/>
-        <v>15.98</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="1">
-        <v>33.68</v>
-      </c>
-      <c r="C35" s="5">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="1"/>
-        <v>33.68</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B41" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="3"/>
+        <v>6.75</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41">
+        <v>12</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="1">
-        <v>17</v>
-      </c>
-      <c r="C36" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="1"/>
-        <v>8.5</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B42" s="1">
+        <v>10.99</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="3"/>
+        <v>10.99</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42">
+        <v>13</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="1"/>
+        <v>142.87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="1">
+        <v>17.95</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <f>B44*C44</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E45" s="2"/>
+      <c r="G45" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1">
+        <f>SUM(D15:D45)</f>
+        <v>264.13135</v>
+      </c>
+      <c r="G46" s="7">
+        <f>SUM(G3:G45)</f>
+        <v>3180.2999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="1">
+        <v>10</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" ref="D49:D50" si="5">B49*C49</f>
+        <v>10</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="1">
+        <v>10</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="1">
-        <v>6.75</v>
-      </c>
-      <c r="C37" s="5">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="1"/>
-        <v>6.75</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B51" s="1">
+        <v>10</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <f>B51*C51</f>
+        <v>10</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="1">
-        <v>10.99</v>
-      </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="1"/>
-        <v>10.99</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="1">
-        <v>17.95</v>
-      </c>
-      <c r="C39" s="5">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <f>B39*C39</f>
-        <v>17.95</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1">
-        <f>SUM(D15:D40)</f>
-        <v>293.64460700000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="1">
-        <v>10</v>
-      </c>
-      <c r="C44" s="5">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" ref="D44:D45" si="3">B44*C44</f>
-        <v>10</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="1">
-        <v>10</v>
-      </c>
-      <c r="C45" s="5">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1">
-        <v>10</v>
-      </c>
-      <c r="C46" s="5">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1">
-        <f>B46*C46</f>
-        <v>10</v>
-      </c>
-      <c r="E46" s="2" t="s">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B52" s="1">
+        <v>23.99</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <f>B52*C52</f>
+        <v>23.99</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="1">
+        <v>7.49</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D53" s="1">
+        <f>B53*C53</f>
+        <v>1.4980000000000002</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="1">
-        <v>23.99</v>
-      </c>
-      <c r="C47" s="5">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1">
-        <f>B47*C47</f>
-        <v>23.99</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="1">
-        <v>7.49</v>
-      </c>
-      <c r="C48" s="5">
+      <c r="B54" s="1">
+        <v>25.99</v>
+      </c>
+      <c r="C54" s="5">
         <v>0.2</v>
       </c>
-      <c r="D48" s="1">
-        <f>B48*C48</f>
-        <v>1.4980000000000002</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="1">
-        <v>25.99</v>
-      </c>
-      <c r="C49" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D49" s="1">
-        <f>B49*C49</f>
+      <c r="D54" s="1">
+        <f>B54*C54</f>
         <v>5.1980000000000004</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1390,30 +1771,35 @@
     <hyperlink ref="E16" r:id="rId15" xr:uid="{81F012B4-C067-4ECA-A1B9-DF33B353F86E}"/>
     <hyperlink ref="E17" r:id="rId16" xr:uid="{14780757-4886-46FC-B065-656D4FA34320}"/>
     <hyperlink ref="E19" r:id="rId17" xr:uid="{4FD0BE7F-A6DC-4A6B-9989-6684A6D37F4A}"/>
-    <hyperlink ref="E44" r:id="rId18" display="https://www.amazon.com/Acxico-Wireless-Charger-Receiver-Universal/dp/B08RDMRZL5/ref=sr_1_23?crid=G3M2ZKXGEBM9&amp;dib=eyJ2IjoiMSJ9.4i1ZqwYY6FZr9nCH4mvlrtF1cqM35m_F0Ym1xydDhizIZaqkAerxdtTJo9odEoMFq1tP8EdcCgCUibhj1LXMWnr5x4PdYnFWSycTuDEc0mnOEuVmbF-sggBBzQizllJBOzVYn-LhPHfww_Xh-FPdw2G_fOmKiPbttQT2JJC0sEYgBebMYg9bsWiq9OCVGuibpbWfItkMCtok-VTjUO_AriMWC5SxzRz9vF3Xh2TXhv10RGl-KqwEUUnhWHkPXBqrM9aPq3tEiPmIZtwoc7ML6f1ijMSez55oKCK5QBd4nuk.tHiHAUHo0mVa6pyA62cS1uqBhCLHpdNo9Cz9L3XEyNk&amp;dib_tag=se&amp;keywords=wireless+charging+pcb&amp;qid=1712689314&amp;s=electronics&amp;sprefix=wireless+charging+pcb%2Celectronics%2C322&amp;sr=1-23" xr:uid="{08A73C9F-0964-4FB5-9AD6-0F4ABA1BC704}"/>
-    <hyperlink ref="E45" r:id="rId19" xr:uid="{B1774A30-BC83-4EF1-8AA9-E4CADE096D9F}"/>
+    <hyperlink ref="E49" r:id="rId18" display="https://www.amazon.com/Acxico-Wireless-Charger-Receiver-Universal/dp/B08RDMRZL5/ref=sr_1_23?crid=G3M2ZKXGEBM9&amp;dib=eyJ2IjoiMSJ9.4i1ZqwYY6FZr9nCH4mvlrtF1cqM35m_F0Ym1xydDhizIZaqkAerxdtTJo9odEoMFq1tP8EdcCgCUibhj1LXMWnr5x4PdYnFWSycTuDEc0mnOEuVmbF-sggBBzQizllJBOzVYn-LhPHfww_Xh-FPdw2G_fOmKiPbttQT2JJC0sEYgBebMYg9bsWiq9OCVGuibpbWfItkMCtok-VTjUO_AriMWC5SxzRz9vF3Xh2TXhv10RGl-KqwEUUnhWHkPXBqrM9aPq3tEiPmIZtwoc7ML6f1ijMSez55oKCK5QBd4nuk.tHiHAUHo0mVa6pyA62cS1uqBhCLHpdNo9Cz9L3XEyNk&amp;dib_tag=se&amp;keywords=wireless+charging+pcb&amp;qid=1712689314&amp;s=electronics&amp;sprefix=wireless+charging+pcb%2Celectronics%2C322&amp;sr=1-23" xr:uid="{08A73C9F-0964-4FB5-9AD6-0F4ABA1BC704}"/>
+    <hyperlink ref="E50" r:id="rId19" xr:uid="{B1774A30-BC83-4EF1-8AA9-E4CADE096D9F}"/>
     <hyperlink ref="E20" r:id="rId20" xr:uid="{CEEB16A1-7E38-4816-86E4-F06E508E7DB9}"/>
     <hyperlink ref="E26" r:id="rId21" xr:uid="{F49B82EB-ABAB-4D77-8FAF-649617C832B8}"/>
     <hyperlink ref="E27" r:id="rId22" xr:uid="{A1EB74E1-FCEC-47CC-BD79-90AB6069BB1F}"/>
-    <hyperlink ref="E31" r:id="rId23" xr:uid="{9BB59440-0F88-4FD1-A304-7EE78BD213D8}"/>
-    <hyperlink ref="E28" r:id="rId24" xr:uid="{4A5C174F-266E-43A3-8BBE-4E4912B14BCC}"/>
-    <hyperlink ref="E32" r:id="rId25" xr:uid="{D764CCA1-A4FD-48AC-90D5-E52CA8A52DD4}"/>
-    <hyperlink ref="E29" r:id="rId26" xr:uid="{8DC24532-E635-48D8-8710-46F68589338D}"/>
-    <hyperlink ref="E33" r:id="rId27" xr:uid="{0A9EB369-0C7E-45E9-95F6-C53935470DB7}"/>
-    <hyperlink ref="E34" r:id="rId28" xr:uid="{B7EC12EC-6B39-46A4-BFD3-C855157169E0}"/>
-    <hyperlink ref="E30" r:id="rId29" xr:uid="{7FD76A71-ADD6-44FC-ACC1-9FA4E0D27B55}"/>
-    <hyperlink ref="E36" r:id="rId30" xr:uid="{41D0A9C7-B4B8-48AD-8480-02C9252A46A5}"/>
-    <hyperlink ref="E37" r:id="rId31" xr:uid="{008DBEC5-375D-4759-B012-F8EE1EAA9425}"/>
-    <hyperlink ref="E38" r:id="rId32" xr:uid="{7D2A4D8A-1071-4C06-8E6E-D97C2F053511}"/>
-    <hyperlink ref="E46" r:id="rId33" xr:uid="{6CADB575-75B1-474F-9605-F8DE29328713}"/>
-    <hyperlink ref="E47" r:id="rId34" xr:uid="{38826FB7-A95E-4097-90B4-4384FB08241D}"/>
-    <hyperlink ref="E48" r:id="rId35" xr:uid="{77FBB77D-314A-489C-BC5B-13739BE65A46}"/>
-    <hyperlink ref="E49" r:id="rId36" xr:uid="{45982B2E-0A33-48C6-B890-B72DE9EF023C}"/>
-    <hyperlink ref="E35" r:id="rId37" xr:uid="{677376AE-5983-4EF5-B718-FF0A14A3AC7D}"/>
-    <hyperlink ref="E39" r:id="rId38" xr:uid="{24F06320-C1ED-4082-860A-8BBC6C420A63}"/>
+    <hyperlink ref="E32" r:id="rId23" xr:uid="{9BB59440-0F88-4FD1-A304-7EE78BD213D8}"/>
+    <hyperlink ref="E29" r:id="rId24" xr:uid="{4A5C174F-266E-43A3-8BBE-4E4912B14BCC}"/>
+    <hyperlink ref="E33" r:id="rId25" xr:uid="{D764CCA1-A4FD-48AC-90D5-E52CA8A52DD4}"/>
+    <hyperlink ref="E30" r:id="rId26" xr:uid="{8DC24532-E635-48D8-8710-46F68589338D}"/>
+    <hyperlink ref="E34" r:id="rId27" xr:uid="{0A9EB369-0C7E-45E9-95F6-C53935470DB7}"/>
+    <hyperlink ref="E37" r:id="rId28" xr:uid="{B7EC12EC-6B39-46A4-BFD3-C855157169E0}"/>
+    <hyperlink ref="E31" r:id="rId29" xr:uid="{7FD76A71-ADD6-44FC-ACC1-9FA4E0D27B55}"/>
+    <hyperlink ref="E40" r:id="rId30" xr:uid="{41D0A9C7-B4B8-48AD-8480-02C9252A46A5}"/>
+    <hyperlink ref="E41" r:id="rId31" xr:uid="{008DBEC5-375D-4759-B012-F8EE1EAA9425}"/>
+    <hyperlink ref="E42" r:id="rId32" xr:uid="{7D2A4D8A-1071-4C06-8E6E-D97C2F053511}"/>
+    <hyperlink ref="E51" r:id="rId33" xr:uid="{6CADB575-75B1-474F-9605-F8DE29328713}"/>
+    <hyperlink ref="E52" r:id="rId34" xr:uid="{38826FB7-A95E-4097-90B4-4384FB08241D}"/>
+    <hyperlink ref="E53" r:id="rId35" xr:uid="{77FBB77D-314A-489C-BC5B-13739BE65A46}"/>
+    <hyperlink ref="E54" r:id="rId36" xr:uid="{45982B2E-0A33-48C6-B890-B72DE9EF023C}"/>
+    <hyperlink ref="E39" r:id="rId37" xr:uid="{677376AE-5983-4EF5-B718-FF0A14A3AC7D}"/>
+    <hyperlink ref="E44" r:id="rId38" xr:uid="{24F06320-C1ED-4082-860A-8BBC6C420A63}"/>
     <hyperlink ref="E21" r:id="rId39" xr:uid="{D21A6BF8-FDA6-42D4-AC5A-1FDF4824496D}"/>
+    <hyperlink ref="E43" r:id="rId40" display="https://www.aliexpress.us/item/3256807233498202.html?spm=a2g0o.productlist.main.7.4ae3RIv0RIv0WL&amp;algo_pvid=02ef2f28-742d-4f17-bab9-180561fff846&amp;algo_exp_id=02ef2f28-742d-4f17-bab9-180561fff846-6&amp;pdp_ext_f=%7B%22order%22%3A%221245%22%2C%22eval%22%3A%221%22%7D&amp;pdp_npi=4%40dis%21USD%2123.10%213.43%21%21%21166.45%2124.71%21%402101ef5e17413010645464431e5357%2112000040678175477%21sea%21US%210%21ABX&amp;curPageLogUid=BfQxaL356lyZ&amp;utparam-url=scene%3Asearch%7Cquery_from%3A" xr:uid="{06C3FAB1-2DF0-414B-8255-09577A94BF57}"/>
+    <hyperlink ref="E28" r:id="rId41" xr:uid="{58DD8028-9DD4-4310-AD9D-526EF6FB0368}"/>
+    <hyperlink ref="E36" r:id="rId42" xr:uid="{EA86092E-BE05-4D1C-80D3-CBD85EEB58EE}"/>
+    <hyperlink ref="E35" r:id="rId43" xr:uid="{49A61435-DA9D-41C2-9625-A86C5A4F8D26}"/>
+    <hyperlink ref="E38" r:id="rId44" xr:uid="{6F0B1D3F-FABC-4654-B599-017157A35F4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>
--- a/ISTEM_PartsOrderList_UselessBox.xlsx
+++ b/ISTEM_PartsOrderList_UselessBox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leistimo\Documents\GitHub\ISTEM2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B290DD9D-C0BE-497A-9AFA-F4F4FC249803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25347187-3A44-4B8D-9EBD-E1F886FC2BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{420A9ACE-F2EA-468B-9015-4042B098DEB1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{420A9ACE-F2EA-468B-9015-4042B098DEB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Cost per Item</t>
   </si>
   <si>
-    <t>Rocker Switch</t>
-  </si>
-  <si>
     <t>Safety Glasses</t>
   </si>
   <si>
@@ -93,27 +90,12 @@
     <t>Header Pins</t>
   </si>
   <si>
-    <t>Wire 3pin Dupont 2.54mm F to F</t>
-  </si>
-  <si>
-    <t>Wire 2pin Dupont 2.54mm F to F</t>
-  </si>
-  <si>
     <t>Creality Filament 2Kg</t>
   </si>
   <si>
-    <t>Toggle Switch</t>
-  </si>
-  <si>
     <t>Needed per kit</t>
   </si>
   <si>
-    <t>ServoMotor</t>
-  </si>
-  <si>
-    <t>USBC Battery Charge Module</t>
-  </si>
-  <si>
     <t>Rubber Bands 13mm</t>
   </si>
   <si>
@@ -126,30 +108,12 @@
     <t>Solder Iron Kit</t>
   </si>
   <si>
-    <t>ESP32</t>
-  </si>
-  <si>
-    <t>MPU-6050 3 Axis motion module</t>
-  </si>
-  <si>
-    <t>Arduino Nano USBC</t>
-  </si>
-  <si>
     <t>UselessBox Project:</t>
   </si>
   <si>
     <t>MicroController ESP32 Project:</t>
   </si>
   <si>
-    <t>OLED I2C Display</t>
-  </si>
-  <si>
-    <t>Raspberry Pi Pico</t>
-  </si>
-  <si>
-    <t>Stepper Motors</t>
-  </si>
-  <si>
     <t>48 Sensor Starter Kit</t>
   </si>
   <si>
@@ -189,28 +153,64 @@
     <t>Spade 2P Cable leads x10</t>
   </si>
   <si>
-    <t>Needle nose plirers</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.us/item/3256807233498202.html?spm=a2g0o.productlist.main.7.4ae3RIv0RIv0WL&amp;algo_pvid=02ef2f28-742d-4f17-bab9-180561fff846&amp;algo_exp_id=02ef2f28-742d-4f17-bab9-180561fff846-6&amp;pdp_ext_f=%7B%22order%22%3A%221245%22%2C%22eval%22%3A%221%22%7D&amp;pdp_npi=4%40dis%21USD%2123.10%213.43%21%21%21166.45%2124.71%21%402101ef5e17413010645464431e5357%2112000040678175477%21sea%21US%210%21ABX&amp;curPageLogUid=BfQxaL356lyZ&amp;utparam-url=scene%3Asearch%7Cquery_from%3A</t>
   </si>
   <si>
-    <t>for 12 participants</t>
-  </si>
-  <si>
     <t>Breakout Board only</t>
   </si>
   <si>
     <t>ESP32 with Breakout Board (not available)</t>
   </si>
   <si>
-    <t>ESC Brushed Motor</t>
-  </si>
-  <si>
     <t>DC Motor Kit (not available)</t>
   </si>
   <si>
-    <t>DC Motors</t>
+    <t>for 14 participants</t>
+  </si>
+  <si>
+    <t>USBC Battery Charge Module x10</t>
+  </si>
+  <si>
+    <t>Wire 3pin Dupont 2.54mm F to F x50</t>
+  </si>
+  <si>
+    <t>Wire 2pin Dupont 2.54mm F to F x20</t>
+  </si>
+  <si>
+    <t>Toggle Switch x10</t>
+  </si>
+  <si>
+    <t>Rocker Switch x10</t>
+  </si>
+  <si>
+    <t>ServoMotor x10</t>
+  </si>
+  <si>
+    <t>Needle nose plirers x5</t>
+  </si>
+  <si>
+    <t>ESP32 x5</t>
+  </si>
+  <si>
+    <t>Arduino Nano USBC x5</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Pico x4</t>
+  </si>
+  <si>
+    <t>MPU-6050 3 Axis motion module x3</t>
+  </si>
+  <si>
+    <t>OLED I2C Display x5</t>
+  </si>
+  <si>
+    <t>Stepper Motors x5</t>
+  </si>
+  <si>
+    <t>DC Motors x6</t>
+  </si>
+  <si>
+    <t>ESC Brushed Motor x10</t>
   </si>
 </sst>
 </file>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EFB30F-B18E-4DA5-BFFD-A8F74341CC63}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -629,20 +629,20 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>38.99</v>
@@ -655,7 +655,7 @@
         <v>3.8990000000000005</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>7.99</v>
@@ -680,7 +680,7 @@
         <v>0.79900000000000004</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>17.989999999999998</v>
@@ -705,19 +705,19 @@
         <v>3.5979999999999999</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="1"/>
-        <v>89.949999999999989</v>
+        <v>107.94</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1">
         <v>7.99</v>
@@ -730,7 +730,7 @@
         <v>1.5980000000000001</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1">
         <v>7.99</v>
@@ -755,7 +755,7 @@
         <v>1.5980000000000001</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>8.99</v>
@@ -780,7 +780,7 @@
         <v>0.89900000000000002</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>5.73</v>
@@ -805,7 +805,7 @@
         <v>0.57300000000000006</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1">
         <v>13.89</v>
@@ -830,7 +830,7 @@
         <v>1.3890000000000002</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1">
         <v>14.99</v>
@@ -855,7 +855,7 @@
         <v>1.4990000000000001</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1">
         <v>6.89</v>
@@ -880,7 +880,7 @@
         <v>0.68900000000000006</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1">
         <v>8.99</v>
@@ -905,7 +905,7 @@
         <v>0.89900000000000002</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1">
         <v>18.989999999999998</v>
@@ -930,7 +930,7 @@
         <v>3.798</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>6.99</v>
@@ -955,19 +955,19 @@
         <v>6.99</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15">
         <v>16</v>
       </c>
-      <c r="F15">
-        <v>14</v>
-      </c>
       <c r="G15" s="7">
         <f t="shared" si="1"/>
-        <v>97.86</v>
+        <v>111.84</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>6.99</v>
@@ -980,19 +980,19 @@
         <v>3.4950000000000001</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="1"/>
-        <v>48.93</v>
+        <v>55.92</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1">
         <v>12.99</v>
@@ -1005,7 +1005,7 @@
         <v>1.2990000000000002</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1">
         <v>6</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>14.99</v>
@@ -1049,19 +1049,19 @@
         <v>14.99</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="1"/>
-        <v>209.86</v>
+        <v>224.85</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1">
         <v>11.99</v>
@@ -1074,19 +1074,19 @@
         <v>11.99</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20">
         <v>16</v>
       </c>
-      <c r="F20">
-        <v>14</v>
-      </c>
       <c r="G20" s="7">
         <f t="shared" si="1"/>
-        <v>167.86</v>
+        <v>191.84</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1">
         <v>18.989999999999998</v>
@@ -1099,7 +1099,7 @@
         <v>3.798</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
         <v>13</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1">
         <v>19</v>
@@ -1144,7 +1144,7 @@
         <v>19</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="1"/>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E25" s="2"/>
       <c r="G25" s="7">
@@ -1170,7 +1170,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1">
         <v>28.99</v>
@@ -1183,19 +1183,19 @@
         <v>5.798</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="1"/>
-        <v>144.94999999999999</v>
+        <v>173.94</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1">
         <v>21.99</v>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="1"/>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1">
         <v>12.99</v>
@@ -1230,19 +1230,19 @@
         <v>4.3256700000000006</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="1"/>
-        <v>38.97</v>
+        <v>77.94</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1">
         <v>20.99</v>
@@ -1255,19 +1255,19 @@
         <v>10.494999999999999</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="1"/>
-        <v>104.94999999999999</v>
+        <v>125.94</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1">
         <v>50</v>
@@ -1280,7 +1280,7 @@
         <v>25</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1">
         <v>50</v>
@@ -1305,44 +1305,44 @@
         <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="1"/>
-        <v>650</v>
+        <v>750</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B32" s="1">
         <v>10.99</v>
       </c>
       <c r="C32" s="5">
-        <v>0.66600000000000004</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="3"/>
-        <v>7.3193400000000004</v>
+        <v>3.6596700000000002</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="1"/>
-        <v>54.95</v>
+        <v>65.94</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1">
         <v>14.99</v>
@@ -1355,19 +1355,19 @@
         <v>5.9960000000000004</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="1"/>
-        <v>44.97</v>
+        <v>59.96</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B34" s="1">
         <v>14.59</v>
@@ -1380,19 +1380,19 @@
         <v>7.2949999999999999</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="1"/>
-        <v>87.539999999999992</v>
+        <v>58.36</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="1">
         <v>9.98</v>
@@ -1405,7 +1405,7 @@
         <v>3.3233400000000004</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B36" s="1">
         <v>25.99</v>
@@ -1430,7 +1430,7 @@
         <v>2.5990000000000002</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1">
         <v>7.99</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1">
         <v>7.49</v>
@@ -1480,7 +1480,7 @@
         <v>1.4980000000000002</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1">
         <v>33.68</v>
@@ -1505,19 +1505,19 @@
         <v>33.68</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39">
         <v>16</v>
       </c>
-      <c r="F39">
-        <v>14</v>
-      </c>
       <c r="G39" s="7">
         <f t="shared" si="1"/>
-        <v>471.52</v>
+        <v>538.88</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B40" s="1">
         <v>17</v>
@@ -1530,19 +1530,19 @@
         <v>8.5</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="1"/>
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B41" s="1">
         <v>6.75</v>
@@ -1555,7 +1555,7 @@
         <v>6.75</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F41">
         <v>12</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B42" s="1">
         <v>10.99</v>
@@ -1580,7 +1580,7 @@
         <v>10.99</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F42">
         <v>13</v>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="1"/>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B44" s="1">
         <v>17.95</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="1"/>
@@ -1633,20 +1633,20 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C46" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" s="1">
         <f>SUM(D15:D45)</f>
-        <v>264.13135</v>
+        <v>260.47167999999999</v>
       </c>
       <c r="G46" s="7">
         <f>SUM(G3:G45)</f>
-        <v>3180.2999999999997</v>
+        <v>3528.3400000000006</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" s="1">
         <v>10</v>
@@ -1659,12 +1659,12 @@
         <v>10</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50" s="1">
         <v>10</v>
@@ -1677,12 +1677,12 @@
         <v>10</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B51" s="1">
         <v>10</v>
@@ -1695,12 +1695,12 @@
         <v>10</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B52" s="1">
         <v>23.99</v>
@@ -1713,12 +1713,12 @@
         <v>23.99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B53" s="1">
         <v>7.49</v>
@@ -1731,12 +1731,12 @@
         <v>1.4980000000000002</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B54" s="1">
         <v>25.99</v>
@@ -1749,7 +1749,7 @@
         <v>5.1980000000000004</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
